--- a/Book.xlsx
+++ b/Book.xlsx
@@ -339,6 +339,34 @@
         <v>邮箱</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>刘大大</v>
+      </c>
+      <c r="B2" t="str">
+        <v>18088992233</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2" t="str">
+        <v>55555@qq.com</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>刘伟超</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1351111222</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3" t="str">
+        <v>12345@qq.com</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -37,8 +37,16 @@
         <bgColor/>
       </patternFill>
     </fill>
+    <fill/>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -50,8 +58,11 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -326,13 +337,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>姓名</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>手机号</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>年龄</v>
       </c>
       <c r="D1" t="str">
@@ -340,13 +351,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>刘大大</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <v>18088992233</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>27</v>
       </c>
       <c r="D2" t="str">
@@ -354,13 +365,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v>刘伟超</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>1351111222</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>27</v>
       </c>
       <c r="D3" t="str">
